--- a/TonganZhao/PaulShinn/Janus/7 and 11pt.xlsx
+++ b/TonganZhao/PaulShinn/Janus/7 and 11pt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022SpringCodingCamp\TonganZhao\PaulShinn\Janus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E68D4F-51D9-491C-91F6-C415A24F8FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278ED45-BEED-4D8A-8E4A-DC53AEF11A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="225" windowWidth="23820" windowHeight="14175" activeTab="1" xr2:uid="{C112BFFF-7BBC-4FD0-B0CB-837E18384276}"/>
+    <workbookView xWindow="-28440" yWindow="75" windowWidth="18435" windowHeight="14880" activeTab="1" xr2:uid="{C112BFFF-7BBC-4FD0-B0CB-837E18384276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5579,7 +5579,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TonganZhao/PaulShinn/Janus/7 and 11pt.xlsx
+++ b/TonganZhao/PaulShinn/Janus/7 and 11pt.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022SpringCodingCamp\TonganZhao\PaulShinn\Janus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE9ED92-45D7-4971-AED5-95E6F74D41E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66235562-6976-4F15-9650-3D3A8FC968F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2760" windowWidth="18585" windowHeight="10800" xr2:uid="{C112BFFF-7BBC-4FD0-B0CB-837E18384276}"/>
+    <workbookView xWindow="210" yWindow="225" windowWidth="27405" windowHeight="15465" xr2:uid="{C112BFFF-7BBC-4FD0-B0CB-837E18384276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Janus 11pt" sheetId="2" r:id="rId2"/>
-    <sheet name="Platemap 11pt" sheetId="3" r:id="rId3"/>
-    <sheet name="Janus 7pt" sheetId="4" r:id="rId4"/>
-    <sheet name="Platemap 7pt" sheetId="5" r:id="rId5"/>
+    <sheet name="FX 11pt" sheetId="8" r:id="rId3"/>
+    <sheet name="Platemap 11pt" sheetId="3" r:id="rId4"/>
+    <sheet name="Janus 7pt" sheetId="4" r:id="rId5"/>
+    <sheet name="FX 7pt" sheetId="9" r:id="rId6"/>
+    <sheet name="Platemap 7pt" sheetId="5" r:id="rId7"/>
+    <sheet name="96" sheetId="6" r:id="rId8"/>
+    <sheet name="384" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="777">
   <si>
     <t>220215-082155-575L</t>
   </si>
@@ -1975,13 +1979,409 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> A02</t>
+  </si>
+  <si>
+    <t> 25</t>
+  </si>
+  <si>
+    <t> 33</t>
+  </si>
+  <si>
+    <t> 41</t>
+  </si>
+  <si>
+    <t> 49</t>
+  </si>
+  <si>
+    <t> 57</t>
+  </si>
+  <si>
+    <t> 65</t>
+  </si>
+  <si>
+    <t> 73</t>
+  </si>
+  <si>
+    <t> 81</t>
+  </si>
+  <si>
+    <t> 89</t>
+  </si>
+  <si>
+    <t> B02</t>
+  </si>
+  <si>
+    <t> 18</t>
+  </si>
+  <si>
+    <t> 26</t>
+  </si>
+  <si>
+    <t> 34</t>
+  </si>
+  <si>
+    <t> 42</t>
+  </si>
+  <si>
+    <t> 50</t>
+  </si>
+  <si>
+    <t> 58</t>
+  </si>
+  <si>
+    <t> 66</t>
+  </si>
+  <si>
+    <t> 74</t>
+  </si>
+  <si>
+    <t> 82</t>
+  </si>
+  <si>
+    <t> 90</t>
+  </si>
+  <si>
+    <t> C02</t>
+  </si>
+  <si>
+    <t> 19</t>
+  </si>
+  <si>
+    <t> 27</t>
+  </si>
+  <si>
+    <t> 35</t>
+  </si>
+  <si>
+    <t> 43</t>
+  </si>
+  <si>
+    <t> 51</t>
+  </si>
+  <si>
+    <t> 59</t>
+  </si>
+  <si>
+    <t> 67</t>
+  </si>
+  <si>
+    <t> 75</t>
+  </si>
+  <si>
+    <t> 83</t>
+  </si>
+  <si>
+    <t> 91</t>
+  </si>
+  <si>
+    <t> D02</t>
+  </si>
+  <si>
+    <t> 20</t>
+  </si>
+  <si>
+    <t> 28</t>
+  </si>
+  <si>
+    <t> 36</t>
+  </si>
+  <si>
+    <t> 44</t>
+  </si>
+  <si>
+    <t> 52</t>
+  </si>
+  <si>
+    <t> 60</t>
+  </si>
+  <si>
+    <t> 68</t>
+  </si>
+  <si>
+    <t> 76</t>
+  </si>
+  <si>
+    <t> 84</t>
+  </si>
+  <si>
+    <t> 92</t>
+  </si>
+  <si>
+    <t> E02</t>
+  </si>
+  <si>
+    <t> 21</t>
+  </si>
+  <si>
+    <t> 29</t>
+  </si>
+  <si>
+    <t> 37</t>
+  </si>
+  <si>
+    <t> 45</t>
+  </si>
+  <si>
+    <t> 53</t>
+  </si>
+  <si>
+    <t> 61</t>
+  </si>
+  <si>
+    <t> 69</t>
+  </si>
+  <si>
+    <t> 77</t>
+  </si>
+  <si>
+    <t> 85</t>
+  </si>
+  <si>
+    <t> 93</t>
+  </si>
+  <si>
+    <t> F02</t>
+  </si>
+  <si>
+    <t> 22</t>
+  </si>
+  <si>
+    <t> 30</t>
+  </si>
+  <si>
+    <t> 38</t>
+  </si>
+  <si>
+    <t> 46</t>
+  </si>
+  <si>
+    <t> 54</t>
+  </si>
+  <si>
+    <t> 62</t>
+  </si>
+  <si>
+    <t> 70</t>
+  </si>
+  <si>
+    <t> 78</t>
+  </si>
+  <si>
+    <t> 86</t>
+  </si>
+  <si>
+    <t> 94</t>
+  </si>
+  <si>
+    <t> G02</t>
+  </si>
+  <si>
+    <t> 23</t>
+  </si>
+  <si>
+    <t> 31</t>
+  </si>
+  <si>
+    <t> 39</t>
+  </si>
+  <si>
+    <t> 47</t>
+  </si>
+  <si>
+    <t> 55</t>
+  </si>
+  <si>
+    <t> 63</t>
+  </si>
+  <si>
+    <t> 71</t>
+  </si>
+  <si>
+    <t> 79</t>
+  </si>
+  <si>
+    <t> 87</t>
+  </si>
+  <si>
+    <t> 95</t>
+  </si>
+  <si>
+    <t> H02</t>
+  </si>
+  <si>
+    <t> 24</t>
+  </si>
+  <si>
+    <t> 32</t>
+  </si>
+  <si>
+    <t> 40</t>
+  </si>
+  <si>
+    <t> 48</t>
+  </si>
+  <si>
+    <t> 56</t>
+  </si>
+  <si>
+    <t> 64</t>
+  </si>
+  <si>
+    <t> 72</t>
+  </si>
+  <si>
+    <t> 80</t>
+  </si>
+  <si>
+    <t> 88</t>
+  </si>
+  <si>
+    <t> 96</t>
+  </si>
+  <si>
+    <t> 14</t>
+  </si>
+  <si>
+    <t> 15</t>
+  </si>
+  <si>
+    <t> 16</t>
+  </si>
+  <si>
+    <t> 17</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2000,6 +2400,12 @@
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2023,11 +2429,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2534,8 +2949,8 @@
   </sheetPr>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,7 +6000,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7577,6 +7992,2005 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC0735-0FC2-47BF-A911-61EF6553C797}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup errors="blank"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169DBE75-CB96-4AD0-ABDE-1E006CBC89B7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7585,8 +9999,8 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:G115"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10251,7 +12665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8A58B5-87B5-47A8-BAA4-85A799DB43DD}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10260,7 +12674,7 @@
   </sheetPr>
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
@@ -12252,7 +14666,2006 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11012064-CD0D-43AB-BF07-5E5D85525CF0}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:E116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup errors="blank"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A616FD5-AE3E-4BD6-965E-921913B7ED7F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12262,7 +16675,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G115"/>
+      <selection activeCell="O1" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14925,4 +19338,3717 @@
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup errors="blank"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CCFB11-BF3D-46B4-8E99-F317A0C985A6}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" t="s">
+        <v>646</v>
+      </c>
+      <c r="N1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O1" s="6">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>17</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" t="s">
+        <v>646</v>
+      </c>
+      <c r="N2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" t="s">
+        <v>646</v>
+      </c>
+      <c r="N3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M4" t="s">
+        <v>646</v>
+      </c>
+      <c r="N4" t="s">
+        <v>646</v>
+      </c>
+      <c r="O4" s="6">
+        <v>4</v>
+      </c>
+      <c r="P4" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L5" t="s">
+        <v>367</v>
+      </c>
+      <c r="M5" t="s">
+        <v>646</v>
+      </c>
+      <c r="N5" t="s">
+        <v>646</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" t="s">
+        <v>340</v>
+      </c>
+      <c r="L6" t="s">
+        <v>371</v>
+      </c>
+      <c r="M6" t="s">
+        <v>646</v>
+      </c>
+      <c r="N6" t="s">
+        <v>646</v>
+      </c>
+      <c r="O6" s="6">
+        <v>6</v>
+      </c>
+      <c r="P6" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M7" t="s">
+        <v>646</v>
+      </c>
+      <c r="N7" t="s">
+        <v>646</v>
+      </c>
+      <c r="O7" s="6">
+        <v>7</v>
+      </c>
+      <c r="P7" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" t="s">
+        <v>379</v>
+      </c>
+      <c r="M8" t="s">
+        <v>646</v>
+      </c>
+      <c r="N8" t="s">
+        <v>646</v>
+      </c>
+      <c r="O8" s="6">
+        <v>8</v>
+      </c>
+      <c r="P8" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" t="s">
+        <v>646</v>
+      </c>
+      <c r="N11" t="s">
+        <v>646</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>3</v>
+      </c>
+      <c r="R11" s="6">
+        <v>4</v>
+      </c>
+      <c r="S11" s="6">
+        <v>5</v>
+      </c>
+      <c r="T11" s="6">
+        <v>6</v>
+      </c>
+      <c r="U11" s="6">
+        <v>7</v>
+      </c>
+      <c r="V11" s="6">
+        <v>8</v>
+      </c>
+      <c r="W11" s="6">
+        <v>9</v>
+      </c>
+      <c r="X11" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" t="s">
+        <v>292</v>
+      </c>
+      <c r="K12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L12" t="s">
+        <v>355</v>
+      </c>
+      <c r="M12" t="s">
+        <v>646</v>
+      </c>
+      <c r="N12" t="s">
+        <v>646</v>
+      </c>
+      <c r="O12" s="6">
+        <v>13</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" t="s">
+        <v>359</v>
+      </c>
+      <c r="M13" t="s">
+        <v>646</v>
+      </c>
+      <c r="N13" t="s">
+        <v>646</v>
+      </c>
+      <c r="O13" s="6">
+        <v>25</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" t="s">
+        <v>363</v>
+      </c>
+      <c r="M14" t="s">
+        <v>646</v>
+      </c>
+      <c r="N14" t="s">
+        <v>646</v>
+      </c>
+      <c r="O14" s="6">
+        <v>37</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" t="s">
+        <v>272</v>
+      </c>
+      <c r="J15" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" t="s">
+        <v>336</v>
+      </c>
+      <c r="L15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M15" t="s">
+        <v>646</v>
+      </c>
+      <c r="N15" t="s">
+        <v>646</v>
+      </c>
+      <c r="O15" s="6">
+        <v>49</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" t="s">
+        <v>340</v>
+      </c>
+      <c r="L16" t="s">
+        <v>371</v>
+      </c>
+      <c r="M16" t="s">
+        <v>646</v>
+      </c>
+      <c r="N16" t="s">
+        <v>646</v>
+      </c>
+      <c r="O16" s="6">
+        <v>61</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" t="s">
+        <v>344</v>
+      </c>
+      <c r="L17" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" t="s">
+        <v>646</v>
+      </c>
+      <c r="N17" t="s">
+        <v>646</v>
+      </c>
+      <c r="O17" s="6">
+        <v>73</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J18" t="s">
+        <v>316</v>
+      </c>
+      <c r="K18" t="s">
+        <v>348</v>
+      </c>
+      <c r="L18" t="s">
+        <v>379</v>
+      </c>
+      <c r="M18" t="s">
+        <v>646</v>
+      </c>
+      <c r="N18" t="s">
+        <v>646</v>
+      </c>
+      <c r="O18" s="6">
+        <v>85</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B53A77-C963-4EBB-95E8-0C300043A64D}">
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <v>49</v>
+      </c>
+      <c r="E1">
+        <v>65</v>
+      </c>
+      <c r="F1">
+        <v>81</v>
+      </c>
+      <c r="G1">
+        <v>97</v>
+      </c>
+      <c r="H1">
+        <v>113</v>
+      </c>
+      <c r="I1">
+        <v>129</v>
+      </c>
+      <c r="J1">
+        <v>145</v>
+      </c>
+      <c r="K1">
+        <v>161</v>
+      </c>
+      <c r="L1">
+        <v>177</v>
+      </c>
+      <c r="M1">
+        <v>193</v>
+      </c>
+      <c r="N1">
+        <v>209</v>
+      </c>
+      <c r="O1">
+        <v>225</v>
+      </c>
+      <c r="P1">
+        <v>241</v>
+      </c>
+      <c r="Q1">
+        <v>257</v>
+      </c>
+      <c r="R1">
+        <v>273</v>
+      </c>
+      <c r="S1">
+        <v>289</v>
+      </c>
+      <c r="T1">
+        <v>305</v>
+      </c>
+      <c r="U1">
+        <v>321</v>
+      </c>
+      <c r="V1">
+        <v>337</v>
+      </c>
+      <c r="W1">
+        <v>353</v>
+      </c>
+      <c r="X1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <v>82</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>114</v>
+      </c>
+      <c r="I2">
+        <v>130</v>
+      </c>
+      <c r="J2">
+        <v>146</v>
+      </c>
+      <c r="K2">
+        <v>162</v>
+      </c>
+      <c r="L2">
+        <v>178</v>
+      </c>
+      <c r="M2">
+        <v>194</v>
+      </c>
+      <c r="N2">
+        <v>210</v>
+      </c>
+      <c r="O2">
+        <v>226</v>
+      </c>
+      <c r="P2">
+        <v>242</v>
+      </c>
+      <c r="Q2">
+        <v>258</v>
+      </c>
+      <c r="R2">
+        <v>274</v>
+      </c>
+      <c r="S2">
+        <v>290</v>
+      </c>
+      <c r="T2">
+        <v>306</v>
+      </c>
+      <c r="U2">
+        <v>322</v>
+      </c>
+      <c r="V2">
+        <v>338</v>
+      </c>
+      <c r="W2">
+        <v>354</v>
+      </c>
+      <c r="X2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>115</v>
+      </c>
+      <c r="I3">
+        <v>131</v>
+      </c>
+      <c r="J3">
+        <v>147</v>
+      </c>
+      <c r="K3">
+        <v>163</v>
+      </c>
+      <c r="L3">
+        <v>179</v>
+      </c>
+      <c r="M3">
+        <v>195</v>
+      </c>
+      <c r="N3">
+        <v>211</v>
+      </c>
+      <c r="O3">
+        <v>227</v>
+      </c>
+      <c r="P3">
+        <v>243</v>
+      </c>
+      <c r="Q3">
+        <v>259</v>
+      </c>
+      <c r="R3">
+        <v>275</v>
+      </c>
+      <c r="S3">
+        <v>291</v>
+      </c>
+      <c r="T3">
+        <v>307</v>
+      </c>
+      <c r="U3">
+        <v>323</v>
+      </c>
+      <c r="V3">
+        <v>339</v>
+      </c>
+      <c r="W3">
+        <v>355</v>
+      </c>
+      <c r="X3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>132</v>
+      </c>
+      <c r="J4">
+        <v>148</v>
+      </c>
+      <c r="K4">
+        <v>164</v>
+      </c>
+      <c r="L4">
+        <v>180</v>
+      </c>
+      <c r="M4">
+        <v>196</v>
+      </c>
+      <c r="N4">
+        <v>212</v>
+      </c>
+      <c r="O4">
+        <v>228</v>
+      </c>
+      <c r="P4">
+        <v>244</v>
+      </c>
+      <c r="Q4">
+        <v>260</v>
+      </c>
+      <c r="R4">
+        <v>276</v>
+      </c>
+      <c r="S4">
+        <v>292</v>
+      </c>
+      <c r="T4">
+        <v>308</v>
+      </c>
+      <c r="U4">
+        <v>324</v>
+      </c>
+      <c r="V4">
+        <v>340</v>
+      </c>
+      <c r="W4">
+        <v>356</v>
+      </c>
+      <c r="X4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>133</v>
+      </c>
+      <c r="J5">
+        <v>149</v>
+      </c>
+      <c r="K5">
+        <v>165</v>
+      </c>
+      <c r="L5">
+        <v>181</v>
+      </c>
+      <c r="M5">
+        <v>197</v>
+      </c>
+      <c r="N5">
+        <v>213</v>
+      </c>
+      <c r="O5">
+        <v>229</v>
+      </c>
+      <c r="P5">
+        <v>245</v>
+      </c>
+      <c r="Q5">
+        <v>261</v>
+      </c>
+      <c r="R5">
+        <v>277</v>
+      </c>
+      <c r="S5">
+        <v>293</v>
+      </c>
+      <c r="T5">
+        <v>309</v>
+      </c>
+      <c r="U5">
+        <v>325</v>
+      </c>
+      <c r="V5">
+        <v>341</v>
+      </c>
+      <c r="W5">
+        <v>357</v>
+      </c>
+      <c r="X5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>134</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>166</v>
+      </c>
+      <c r="L6">
+        <v>182</v>
+      </c>
+      <c r="M6">
+        <v>198</v>
+      </c>
+      <c r="N6">
+        <v>214</v>
+      </c>
+      <c r="O6">
+        <v>230</v>
+      </c>
+      <c r="P6">
+        <v>246</v>
+      </c>
+      <c r="Q6">
+        <v>262</v>
+      </c>
+      <c r="R6">
+        <v>278</v>
+      </c>
+      <c r="S6">
+        <v>294</v>
+      </c>
+      <c r="T6">
+        <v>310</v>
+      </c>
+      <c r="U6">
+        <v>326</v>
+      </c>
+      <c r="V6">
+        <v>342</v>
+      </c>
+      <c r="W6">
+        <v>358</v>
+      </c>
+      <c r="X6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>87</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>119</v>
+      </c>
+      <c r="I7">
+        <v>135</v>
+      </c>
+      <c r="J7">
+        <v>151</v>
+      </c>
+      <c r="K7">
+        <v>167</v>
+      </c>
+      <c r="L7">
+        <v>183</v>
+      </c>
+      <c r="M7">
+        <v>199</v>
+      </c>
+      <c r="N7">
+        <v>215</v>
+      </c>
+      <c r="O7">
+        <v>231</v>
+      </c>
+      <c r="P7">
+        <v>247</v>
+      </c>
+      <c r="Q7">
+        <v>263</v>
+      </c>
+      <c r="R7">
+        <v>279</v>
+      </c>
+      <c r="S7">
+        <v>295</v>
+      </c>
+      <c r="T7">
+        <v>311</v>
+      </c>
+      <c r="U7">
+        <v>327</v>
+      </c>
+      <c r="V7">
+        <v>343</v>
+      </c>
+      <c r="W7">
+        <v>359</v>
+      </c>
+      <c r="X7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <v>136</v>
+      </c>
+      <c r="J8">
+        <v>152</v>
+      </c>
+      <c r="K8">
+        <v>168</v>
+      </c>
+      <c r="L8">
+        <v>184</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+      <c r="N8">
+        <v>216</v>
+      </c>
+      <c r="O8">
+        <v>232</v>
+      </c>
+      <c r="P8">
+        <v>248</v>
+      </c>
+      <c r="Q8">
+        <v>264</v>
+      </c>
+      <c r="R8">
+        <v>280</v>
+      </c>
+      <c r="S8">
+        <v>296</v>
+      </c>
+      <c r="T8">
+        <v>312</v>
+      </c>
+      <c r="U8">
+        <v>328</v>
+      </c>
+      <c r="V8">
+        <v>344</v>
+      </c>
+      <c r="W8">
+        <v>360</v>
+      </c>
+      <c r="X8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>89</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>121</v>
+      </c>
+      <c r="I9">
+        <v>137</v>
+      </c>
+      <c r="J9">
+        <v>153</v>
+      </c>
+      <c r="K9">
+        <v>169</v>
+      </c>
+      <c r="L9">
+        <v>185</v>
+      </c>
+      <c r="M9">
+        <v>201</v>
+      </c>
+      <c r="N9">
+        <v>217</v>
+      </c>
+      <c r="O9">
+        <v>233</v>
+      </c>
+      <c r="P9">
+        <v>249</v>
+      </c>
+      <c r="Q9">
+        <v>265</v>
+      </c>
+      <c r="R9">
+        <v>281</v>
+      </c>
+      <c r="S9">
+        <v>297</v>
+      </c>
+      <c r="T9">
+        <v>313</v>
+      </c>
+      <c r="U9">
+        <v>329</v>
+      </c>
+      <c r="V9">
+        <v>345</v>
+      </c>
+      <c r="W9">
+        <v>361</v>
+      </c>
+      <c r="X9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>122</v>
+      </c>
+      <c r="I10">
+        <v>138</v>
+      </c>
+      <c r="J10">
+        <v>154</v>
+      </c>
+      <c r="K10">
+        <v>170</v>
+      </c>
+      <c r="L10">
+        <v>186</v>
+      </c>
+      <c r="M10">
+        <v>202</v>
+      </c>
+      <c r="N10">
+        <v>218</v>
+      </c>
+      <c r="O10">
+        <v>234</v>
+      </c>
+      <c r="P10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
+        <v>266</v>
+      </c>
+      <c r="R10">
+        <v>282</v>
+      </c>
+      <c r="S10">
+        <v>298</v>
+      </c>
+      <c r="T10">
+        <v>314</v>
+      </c>
+      <c r="U10">
+        <v>330</v>
+      </c>
+      <c r="V10">
+        <v>346</v>
+      </c>
+      <c r="W10">
+        <v>362</v>
+      </c>
+      <c r="X10">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>107</v>
+      </c>
+      <c r="H11">
+        <v>123</v>
+      </c>
+      <c r="I11">
+        <v>139</v>
+      </c>
+      <c r="J11">
+        <v>155</v>
+      </c>
+      <c r="K11">
+        <v>171</v>
+      </c>
+      <c r="L11">
+        <v>187</v>
+      </c>
+      <c r="M11">
+        <v>203</v>
+      </c>
+      <c r="N11">
+        <v>219</v>
+      </c>
+      <c r="O11">
+        <v>235</v>
+      </c>
+      <c r="P11">
+        <v>251</v>
+      </c>
+      <c r="Q11">
+        <v>267</v>
+      </c>
+      <c r="R11">
+        <v>283</v>
+      </c>
+      <c r="S11">
+        <v>299</v>
+      </c>
+      <c r="T11">
+        <v>315</v>
+      </c>
+      <c r="U11">
+        <v>331</v>
+      </c>
+      <c r="V11">
+        <v>347</v>
+      </c>
+      <c r="W11">
+        <v>363</v>
+      </c>
+      <c r="X11">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>124</v>
+      </c>
+      <c r="I12">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <v>172</v>
+      </c>
+      <c r="L12">
+        <v>188</v>
+      </c>
+      <c r="M12">
+        <v>204</v>
+      </c>
+      <c r="N12">
+        <v>220</v>
+      </c>
+      <c r="O12">
+        <v>236</v>
+      </c>
+      <c r="P12">
+        <v>252</v>
+      </c>
+      <c r="Q12">
+        <v>268</v>
+      </c>
+      <c r="R12">
+        <v>284</v>
+      </c>
+      <c r="S12">
+        <v>300</v>
+      </c>
+      <c r="T12">
+        <v>316</v>
+      </c>
+      <c r="U12">
+        <v>332</v>
+      </c>
+      <c r="V12">
+        <v>348</v>
+      </c>
+      <c r="W12">
+        <v>364</v>
+      </c>
+      <c r="X12">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <v>109</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="I13">
+        <v>141</v>
+      </c>
+      <c r="J13">
+        <v>157</v>
+      </c>
+      <c r="K13">
+        <v>173</v>
+      </c>
+      <c r="L13">
+        <v>189</v>
+      </c>
+      <c r="M13">
+        <v>205</v>
+      </c>
+      <c r="N13">
+        <v>221</v>
+      </c>
+      <c r="O13">
+        <v>237</v>
+      </c>
+      <c r="P13">
+        <v>253</v>
+      </c>
+      <c r="Q13">
+        <v>269</v>
+      </c>
+      <c r="R13">
+        <v>285</v>
+      </c>
+      <c r="S13">
+        <v>301</v>
+      </c>
+      <c r="T13">
+        <v>317</v>
+      </c>
+      <c r="U13">
+        <v>333</v>
+      </c>
+      <c r="V13">
+        <v>349</v>
+      </c>
+      <c r="W13">
+        <v>365</v>
+      </c>
+      <c r="X13">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>126</v>
+      </c>
+      <c r="I14">
+        <v>142</v>
+      </c>
+      <c r="J14">
+        <v>158</v>
+      </c>
+      <c r="K14">
+        <v>174</v>
+      </c>
+      <c r="L14">
+        <v>190</v>
+      </c>
+      <c r="M14">
+        <v>206</v>
+      </c>
+      <c r="N14">
+        <v>222</v>
+      </c>
+      <c r="O14">
+        <v>238</v>
+      </c>
+      <c r="P14">
+        <v>254</v>
+      </c>
+      <c r="Q14">
+        <v>270</v>
+      </c>
+      <c r="R14">
+        <v>286</v>
+      </c>
+      <c r="S14">
+        <v>302</v>
+      </c>
+      <c r="T14">
+        <v>318</v>
+      </c>
+      <c r="U14">
+        <v>334</v>
+      </c>
+      <c r="V14">
+        <v>350</v>
+      </c>
+      <c r="W14">
+        <v>366</v>
+      </c>
+      <c r="X14">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>111</v>
+      </c>
+      <c r="H15">
+        <v>127</v>
+      </c>
+      <c r="I15">
+        <v>143</v>
+      </c>
+      <c r="J15">
+        <v>159</v>
+      </c>
+      <c r="K15">
+        <v>175</v>
+      </c>
+      <c r="L15">
+        <v>191</v>
+      </c>
+      <c r="M15">
+        <v>207</v>
+      </c>
+      <c r="N15">
+        <v>223</v>
+      </c>
+      <c r="O15">
+        <v>239</v>
+      </c>
+      <c r="P15">
+        <v>255</v>
+      </c>
+      <c r="Q15">
+        <v>271</v>
+      </c>
+      <c r="R15">
+        <v>287</v>
+      </c>
+      <c r="S15">
+        <v>303</v>
+      </c>
+      <c r="T15">
+        <v>319</v>
+      </c>
+      <c r="U15">
+        <v>335</v>
+      </c>
+      <c r="V15">
+        <v>351</v>
+      </c>
+      <c r="W15">
+        <v>367</v>
+      </c>
+      <c r="X15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>128</v>
+      </c>
+      <c r="I16">
+        <v>144</v>
+      </c>
+      <c r="J16">
+        <v>160</v>
+      </c>
+      <c r="K16">
+        <v>176</v>
+      </c>
+      <c r="L16">
+        <v>192</v>
+      </c>
+      <c r="M16">
+        <v>208</v>
+      </c>
+      <c r="N16">
+        <v>224</v>
+      </c>
+      <c r="O16">
+        <v>240</v>
+      </c>
+      <c r="P16">
+        <v>256</v>
+      </c>
+      <c r="Q16">
+        <v>272</v>
+      </c>
+      <c r="R16">
+        <v>288</v>
+      </c>
+      <c r="S16">
+        <v>304</v>
+      </c>
+      <c r="T16">
+        <v>320</v>
+      </c>
+      <c r="U16">
+        <v>336</v>
+      </c>
+      <c r="V16">
+        <v>352</v>
+      </c>
+      <c r="W16">
+        <v>368</v>
+      </c>
+      <c r="X16">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
+        <v>19</v>
+      </c>
+      <c r="T18">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>21</v>
+      </c>
+      <c r="V18">
+        <v>22</v>
+      </c>
+      <c r="W18">
+        <v>23</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>38</v>
+      </c>
+      <c r="O19">
+        <v>39</v>
+      </c>
+      <c r="P19">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>41</v>
+      </c>
+      <c r="R19">
+        <v>42</v>
+      </c>
+      <c r="S19">
+        <v>43</v>
+      </c>
+      <c r="T19">
+        <v>44</v>
+      </c>
+      <c r="U19">
+        <v>45</v>
+      </c>
+      <c r="V19">
+        <v>46</v>
+      </c>
+      <c r="W19">
+        <v>47</v>
+      </c>
+      <c r="X19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="I20">
+        <v>57</v>
+      </c>
+      <c r="J20">
+        <v>58</v>
+      </c>
+      <c r="K20">
+        <v>59</v>
+      </c>
+      <c r="L20">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>61</v>
+      </c>
+      <c r="N20">
+        <v>62</v>
+      </c>
+      <c r="O20">
+        <v>63</v>
+      </c>
+      <c r="P20">
+        <v>64</v>
+      </c>
+      <c r="Q20">
+        <v>65</v>
+      </c>
+      <c r="R20">
+        <v>66</v>
+      </c>
+      <c r="S20">
+        <v>67</v>
+      </c>
+      <c r="T20">
+        <v>68</v>
+      </c>
+      <c r="U20">
+        <v>69</v>
+      </c>
+      <c r="V20">
+        <v>70</v>
+      </c>
+      <c r="W20">
+        <v>71</v>
+      </c>
+      <c r="X20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>79</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>81</v>
+      </c>
+      <c r="J21">
+        <v>82</v>
+      </c>
+      <c r="K21">
+        <v>83</v>
+      </c>
+      <c r="L21">
+        <v>84</v>
+      </c>
+      <c r="M21">
+        <v>85</v>
+      </c>
+      <c r="N21">
+        <v>86</v>
+      </c>
+      <c r="O21">
+        <v>87</v>
+      </c>
+      <c r="P21">
+        <v>88</v>
+      </c>
+      <c r="Q21">
+        <v>89</v>
+      </c>
+      <c r="R21">
+        <v>90</v>
+      </c>
+      <c r="S21">
+        <v>91</v>
+      </c>
+      <c r="T21">
+        <v>92</v>
+      </c>
+      <c r="U21">
+        <v>93</v>
+      </c>
+      <c r="V21">
+        <v>94</v>
+      </c>
+      <c r="W21">
+        <v>95</v>
+      </c>
+      <c r="X21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <v>98</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>101</v>
+      </c>
+      <c r="F22">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>104</v>
+      </c>
+      <c r="I22">
+        <v>105</v>
+      </c>
+      <c r="J22">
+        <v>106</v>
+      </c>
+      <c r="K22">
+        <v>107</v>
+      </c>
+      <c r="L22">
+        <v>108</v>
+      </c>
+      <c r="M22">
+        <v>109</v>
+      </c>
+      <c r="N22">
+        <v>110</v>
+      </c>
+      <c r="O22">
+        <v>111</v>
+      </c>
+      <c r="P22">
+        <v>112</v>
+      </c>
+      <c r="Q22">
+        <v>113</v>
+      </c>
+      <c r="R22">
+        <v>114</v>
+      </c>
+      <c r="S22">
+        <v>115</v>
+      </c>
+      <c r="T22">
+        <v>116</v>
+      </c>
+      <c r="U22">
+        <v>117</v>
+      </c>
+      <c r="V22">
+        <v>118</v>
+      </c>
+      <c r="W22">
+        <v>119</v>
+      </c>
+      <c r="X22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23">
+        <v>123</v>
+      </c>
+      <c r="D23">
+        <v>124</v>
+      </c>
+      <c r="E23">
+        <v>125</v>
+      </c>
+      <c r="F23">
+        <v>126</v>
+      </c>
+      <c r="G23">
+        <v>127</v>
+      </c>
+      <c r="H23">
+        <v>128</v>
+      </c>
+      <c r="I23">
+        <v>129</v>
+      </c>
+      <c r="J23">
+        <v>130</v>
+      </c>
+      <c r="K23">
+        <v>131</v>
+      </c>
+      <c r="L23">
+        <v>132</v>
+      </c>
+      <c r="M23">
+        <v>133</v>
+      </c>
+      <c r="N23">
+        <v>134</v>
+      </c>
+      <c r="O23">
+        <v>135</v>
+      </c>
+      <c r="P23">
+        <v>136</v>
+      </c>
+      <c r="Q23">
+        <v>137</v>
+      </c>
+      <c r="R23">
+        <v>138</v>
+      </c>
+      <c r="S23">
+        <v>139</v>
+      </c>
+      <c r="T23">
+        <v>140</v>
+      </c>
+      <c r="U23">
+        <v>141</v>
+      </c>
+      <c r="V23">
+        <v>142</v>
+      </c>
+      <c r="W23">
+        <v>143</v>
+      </c>
+      <c r="X23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>146</v>
+      </c>
+      <c r="C24">
+        <v>147</v>
+      </c>
+      <c r="D24">
+        <v>148</v>
+      </c>
+      <c r="E24">
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>151</v>
+      </c>
+      <c r="H24">
+        <v>152</v>
+      </c>
+      <c r="I24">
+        <v>153</v>
+      </c>
+      <c r="J24">
+        <v>154</v>
+      </c>
+      <c r="K24">
+        <v>155</v>
+      </c>
+      <c r="L24">
+        <v>156</v>
+      </c>
+      <c r="M24">
+        <v>157</v>
+      </c>
+      <c r="N24">
+        <v>158</v>
+      </c>
+      <c r="O24">
+        <v>159</v>
+      </c>
+      <c r="P24">
+        <v>160</v>
+      </c>
+      <c r="Q24">
+        <v>161</v>
+      </c>
+      <c r="R24">
+        <v>162</v>
+      </c>
+      <c r="S24">
+        <v>163</v>
+      </c>
+      <c r="T24">
+        <v>164</v>
+      </c>
+      <c r="U24">
+        <v>165</v>
+      </c>
+      <c r="V24">
+        <v>166</v>
+      </c>
+      <c r="W24">
+        <v>167</v>
+      </c>
+      <c r="X24">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>169</v>
+      </c>
+      <c r="B25">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>172</v>
+      </c>
+      <c r="E25">
+        <v>173</v>
+      </c>
+      <c r="F25">
+        <v>174</v>
+      </c>
+      <c r="G25">
+        <v>175</v>
+      </c>
+      <c r="H25">
+        <v>176</v>
+      </c>
+      <c r="I25">
+        <v>177</v>
+      </c>
+      <c r="J25">
+        <v>178</v>
+      </c>
+      <c r="K25">
+        <v>179</v>
+      </c>
+      <c r="L25">
+        <v>180</v>
+      </c>
+      <c r="M25">
+        <v>181</v>
+      </c>
+      <c r="N25">
+        <v>182</v>
+      </c>
+      <c r="O25">
+        <v>183</v>
+      </c>
+      <c r="P25">
+        <v>184</v>
+      </c>
+      <c r="Q25">
+        <v>185</v>
+      </c>
+      <c r="R25">
+        <v>186</v>
+      </c>
+      <c r="S25">
+        <v>187</v>
+      </c>
+      <c r="T25">
+        <v>188</v>
+      </c>
+      <c r="U25">
+        <v>189</v>
+      </c>
+      <c r="V25">
+        <v>190</v>
+      </c>
+      <c r="W25">
+        <v>191</v>
+      </c>
+      <c r="X25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>193</v>
+      </c>
+      <c r="B26">
+        <v>194</v>
+      </c>
+      <c r="C26">
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <v>196</v>
+      </c>
+      <c r="E26">
+        <v>197</v>
+      </c>
+      <c r="F26">
+        <v>198</v>
+      </c>
+      <c r="G26">
+        <v>199</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26">
+        <v>201</v>
+      </c>
+      <c r="J26">
+        <v>202</v>
+      </c>
+      <c r="K26">
+        <v>203</v>
+      </c>
+      <c r="L26">
+        <v>204</v>
+      </c>
+      <c r="M26">
+        <v>205</v>
+      </c>
+      <c r="N26">
+        <v>206</v>
+      </c>
+      <c r="O26">
+        <v>207</v>
+      </c>
+      <c r="P26">
+        <v>208</v>
+      </c>
+      <c r="Q26">
+        <v>209</v>
+      </c>
+      <c r="R26">
+        <v>210</v>
+      </c>
+      <c r="S26">
+        <v>211</v>
+      </c>
+      <c r="T26">
+        <v>212</v>
+      </c>
+      <c r="U26">
+        <v>213</v>
+      </c>
+      <c r="V26">
+        <v>214</v>
+      </c>
+      <c r="W26">
+        <v>215</v>
+      </c>
+      <c r="X26">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>217</v>
+      </c>
+      <c r="B27">
+        <v>218</v>
+      </c>
+      <c r="C27">
+        <v>219</v>
+      </c>
+      <c r="D27">
+        <v>220</v>
+      </c>
+      <c r="E27">
+        <v>221</v>
+      </c>
+      <c r="F27">
+        <v>222</v>
+      </c>
+      <c r="G27">
+        <v>223</v>
+      </c>
+      <c r="H27">
+        <v>224</v>
+      </c>
+      <c r="I27">
+        <v>225</v>
+      </c>
+      <c r="J27">
+        <v>226</v>
+      </c>
+      <c r="K27">
+        <v>227</v>
+      </c>
+      <c r="L27">
+        <v>228</v>
+      </c>
+      <c r="M27">
+        <v>229</v>
+      </c>
+      <c r="N27">
+        <v>230</v>
+      </c>
+      <c r="O27">
+        <v>231</v>
+      </c>
+      <c r="P27">
+        <v>232</v>
+      </c>
+      <c r="Q27">
+        <v>233</v>
+      </c>
+      <c r="R27">
+        <v>234</v>
+      </c>
+      <c r="S27">
+        <v>235</v>
+      </c>
+      <c r="T27">
+        <v>236</v>
+      </c>
+      <c r="U27">
+        <v>237</v>
+      </c>
+      <c r="V27">
+        <v>238</v>
+      </c>
+      <c r="W27">
+        <v>239</v>
+      </c>
+      <c r="X27">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>241</v>
+      </c>
+      <c r="B28">
+        <v>242</v>
+      </c>
+      <c r="C28">
+        <v>243</v>
+      </c>
+      <c r="D28">
+        <v>244</v>
+      </c>
+      <c r="E28">
+        <v>245</v>
+      </c>
+      <c r="F28">
+        <v>246</v>
+      </c>
+      <c r="G28">
+        <v>247</v>
+      </c>
+      <c r="H28">
+        <v>248</v>
+      </c>
+      <c r="I28">
+        <v>249</v>
+      </c>
+      <c r="J28">
+        <v>250</v>
+      </c>
+      <c r="K28">
+        <v>251</v>
+      </c>
+      <c r="L28">
+        <v>252</v>
+      </c>
+      <c r="M28">
+        <v>253</v>
+      </c>
+      <c r="N28">
+        <v>254</v>
+      </c>
+      <c r="O28">
+        <v>255</v>
+      </c>
+      <c r="P28">
+        <v>256</v>
+      </c>
+      <c r="Q28">
+        <v>257</v>
+      </c>
+      <c r="R28">
+        <v>258</v>
+      </c>
+      <c r="S28">
+        <v>259</v>
+      </c>
+      <c r="T28">
+        <v>260</v>
+      </c>
+      <c r="U28">
+        <v>261</v>
+      </c>
+      <c r="V28">
+        <v>262</v>
+      </c>
+      <c r="W28">
+        <v>263</v>
+      </c>
+      <c r="X28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>265</v>
+      </c>
+      <c r="B29">
+        <v>266</v>
+      </c>
+      <c r="C29">
+        <v>267</v>
+      </c>
+      <c r="D29">
+        <v>268</v>
+      </c>
+      <c r="E29">
+        <v>269</v>
+      </c>
+      <c r="F29">
+        <v>270</v>
+      </c>
+      <c r="G29">
+        <v>271</v>
+      </c>
+      <c r="H29">
+        <v>272</v>
+      </c>
+      <c r="I29">
+        <v>273</v>
+      </c>
+      <c r="J29">
+        <v>274</v>
+      </c>
+      <c r="K29">
+        <v>275</v>
+      </c>
+      <c r="L29">
+        <v>276</v>
+      </c>
+      <c r="M29">
+        <v>277</v>
+      </c>
+      <c r="N29">
+        <v>278</v>
+      </c>
+      <c r="O29">
+        <v>279</v>
+      </c>
+      <c r="P29">
+        <v>280</v>
+      </c>
+      <c r="Q29">
+        <v>281</v>
+      </c>
+      <c r="R29">
+        <v>282</v>
+      </c>
+      <c r="S29">
+        <v>283</v>
+      </c>
+      <c r="T29">
+        <v>284</v>
+      </c>
+      <c r="U29">
+        <v>285</v>
+      </c>
+      <c r="V29">
+        <v>286</v>
+      </c>
+      <c r="W29">
+        <v>287</v>
+      </c>
+      <c r="X29">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>289</v>
+      </c>
+      <c r="B30">
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>291</v>
+      </c>
+      <c r="D30">
+        <v>292</v>
+      </c>
+      <c r="E30">
+        <v>293</v>
+      </c>
+      <c r="F30">
+        <v>294</v>
+      </c>
+      <c r="G30">
+        <v>295</v>
+      </c>
+      <c r="H30">
+        <v>296</v>
+      </c>
+      <c r="I30">
+        <v>297</v>
+      </c>
+      <c r="J30">
+        <v>298</v>
+      </c>
+      <c r="K30">
+        <v>299</v>
+      </c>
+      <c r="L30">
+        <v>300</v>
+      </c>
+      <c r="M30">
+        <v>301</v>
+      </c>
+      <c r="N30">
+        <v>302</v>
+      </c>
+      <c r="O30">
+        <v>303</v>
+      </c>
+      <c r="P30">
+        <v>304</v>
+      </c>
+      <c r="Q30">
+        <v>305</v>
+      </c>
+      <c r="R30">
+        <v>306</v>
+      </c>
+      <c r="S30">
+        <v>307</v>
+      </c>
+      <c r="T30">
+        <v>308</v>
+      </c>
+      <c r="U30">
+        <v>309</v>
+      </c>
+      <c r="V30">
+        <v>310</v>
+      </c>
+      <c r="W30">
+        <v>311</v>
+      </c>
+      <c r="X30">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>313</v>
+      </c>
+      <c r="B31">
+        <v>314</v>
+      </c>
+      <c r="C31">
+        <v>315</v>
+      </c>
+      <c r="D31">
+        <v>316</v>
+      </c>
+      <c r="E31">
+        <v>317</v>
+      </c>
+      <c r="F31">
+        <v>318</v>
+      </c>
+      <c r="G31">
+        <v>319</v>
+      </c>
+      <c r="H31">
+        <v>320</v>
+      </c>
+      <c r="I31">
+        <v>321</v>
+      </c>
+      <c r="J31">
+        <v>322</v>
+      </c>
+      <c r="K31">
+        <v>323</v>
+      </c>
+      <c r="L31">
+        <v>324</v>
+      </c>
+      <c r="M31">
+        <v>325</v>
+      </c>
+      <c r="N31">
+        <v>326</v>
+      </c>
+      <c r="O31">
+        <v>327</v>
+      </c>
+      <c r="P31">
+        <v>328</v>
+      </c>
+      <c r="Q31">
+        <v>329</v>
+      </c>
+      <c r="R31">
+        <v>330</v>
+      </c>
+      <c r="S31">
+        <v>331</v>
+      </c>
+      <c r="T31">
+        <v>332</v>
+      </c>
+      <c r="U31">
+        <v>333</v>
+      </c>
+      <c r="V31">
+        <v>334</v>
+      </c>
+      <c r="W31">
+        <v>335</v>
+      </c>
+      <c r="X31">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>337</v>
+      </c>
+      <c r="B32">
+        <v>338</v>
+      </c>
+      <c r="C32">
+        <v>339</v>
+      </c>
+      <c r="D32">
+        <v>340</v>
+      </c>
+      <c r="E32">
+        <v>341</v>
+      </c>
+      <c r="F32">
+        <v>342</v>
+      </c>
+      <c r="G32">
+        <v>343</v>
+      </c>
+      <c r="H32">
+        <v>344</v>
+      </c>
+      <c r="I32">
+        <v>345</v>
+      </c>
+      <c r="J32">
+        <v>346</v>
+      </c>
+      <c r="K32">
+        <v>347</v>
+      </c>
+      <c r="L32">
+        <v>348</v>
+      </c>
+      <c r="M32">
+        <v>349</v>
+      </c>
+      <c r="N32">
+        <v>350</v>
+      </c>
+      <c r="O32">
+        <v>351</v>
+      </c>
+      <c r="P32">
+        <v>352</v>
+      </c>
+      <c r="Q32">
+        <v>353</v>
+      </c>
+      <c r="R32">
+        <v>354</v>
+      </c>
+      <c r="S32">
+        <v>355</v>
+      </c>
+      <c r="T32">
+        <v>356</v>
+      </c>
+      <c r="U32">
+        <v>357</v>
+      </c>
+      <c r="V32">
+        <v>358</v>
+      </c>
+      <c r="W32">
+        <v>359</v>
+      </c>
+      <c r="X32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>361</v>
+      </c>
+      <c r="B33">
+        <v>362</v>
+      </c>
+      <c r="C33">
+        <v>363</v>
+      </c>
+      <c r="D33">
+        <v>364</v>
+      </c>
+      <c r="E33">
+        <v>365</v>
+      </c>
+      <c r="F33">
+        <v>366</v>
+      </c>
+      <c r="G33">
+        <v>367</v>
+      </c>
+      <c r="H33">
+        <v>368</v>
+      </c>
+      <c r="I33">
+        <v>369</v>
+      </c>
+      <c r="J33">
+        <v>370</v>
+      </c>
+      <c r="K33">
+        <v>371</v>
+      </c>
+      <c r="L33">
+        <v>372</v>
+      </c>
+      <c r="M33">
+        <v>373</v>
+      </c>
+      <c r="N33">
+        <v>374</v>
+      </c>
+      <c r="O33">
+        <v>375</v>
+      </c>
+      <c r="P33">
+        <v>376</v>
+      </c>
+      <c r="Q33">
+        <v>377</v>
+      </c>
+      <c r="R33">
+        <v>378</v>
+      </c>
+      <c r="S33">
+        <v>379</v>
+      </c>
+      <c r="T33">
+        <v>380</v>
+      </c>
+      <c r="U33">
+        <v>381</v>
+      </c>
+      <c r="V33">
+        <v>382</v>
+      </c>
+      <c r="W33">
+        <v>383</v>
+      </c>
+      <c r="X33">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>